--- a/datasets/1d - Gross Opening stocks.xlsx
+++ b/datasets/1d - Gross Opening stocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Data analysis projects\Coffee_production_consumption\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EB0617-5E7F-4CB1-B0D3-13AE14EA3D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CE76EE-4C7A-4563-A836-36AA2DA54E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,17 +19,28 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Print Table here'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Print Table here'!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="95">
   <si>
     <t>Gross opening stocks in all exporting countries</t>
   </si>
@@ -268,9 +279,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Crop years</t>
-  </si>
-  <si>
     <t>2015/16</t>
   </si>
   <si>
@@ -283,9 +291,6 @@
     <t>2018/19</t>
   </si>
   <si>
-    <t>Bolivia (Plurinational State of)</t>
-  </si>
-  <si>
     <t>Congo</t>
   </si>
   <si>
@@ -311,6 +316,15 @@
   </si>
   <si>
     <t>October</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
   </si>
 </sst>
 </file>
@@ -716,13 +730,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF62"/>
+  <dimension ref="A1:AG62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A58" sqref="A58"/>
+      <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -733,26 +747,26 @@
     <col min="33" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
     </row>
-    <row r="4" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -830,27 +844,30 @@
         <v>27</v>
       </c>
       <c r="AB4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AD4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AE4" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="AF4" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" s="5">
         <v>210</v>
@@ -942,13 +959,17 @@
       <c r="AF5" s="15">
         <v>105</v>
       </c>
+      <c r="AG5" s="15">
+        <f>SUM(C5:AF5)</f>
+        <v>3725</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="5">
         <v>54</v>
@@ -1040,13 +1061,17 @@
       <c r="AF6" s="15">
         <v>0</v>
       </c>
+      <c r="AG6" s="15">
+        <f t="shared" ref="AG6:AG61" si="0">SUM(C6:AF6)</f>
+        <v>209.89999999999998</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" s="5">
         <v>26926</v>
@@ -1138,13 +1163,17 @@
       <c r="AF7" s="15">
         <v>14893</v>
       </c>
+      <c r="AG7" s="15">
+        <f t="shared" si="0"/>
+        <v>688076</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="5">
         <v>77</v>
@@ -1236,13 +1265,17 @@
       <c r="AF8" s="15">
         <v>20</v>
       </c>
+      <c r="AG8" s="15">
+        <f t="shared" si="0"/>
+        <v>1440.4110000000001</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="5">
         <v>723.96299999999997</v>
@@ -1334,13 +1367,17 @@
       <c r="AF9" s="15">
         <v>3</v>
       </c>
+      <c r="AG9" s="15">
+        <f t="shared" si="0"/>
+        <v>3152.17</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="5">
         <v>1319</v>
@@ -1432,13 +1469,17 @@
       <c r="AF10" s="15">
         <v>500</v>
       </c>
+      <c r="AG10" s="15">
+        <f t="shared" si="0"/>
+        <v>20513.324999999997</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" s="5">
         <v>544</v>
@@ -1530,13 +1571,17 @@
       <c r="AF11" s="15">
         <v>10</v>
       </c>
+      <c r="AG11" s="15">
+        <f t="shared" si="0"/>
+        <v>2550.0230000000006</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" s="5">
         <v>20</v>
@@ -1628,13 +1673,17 @@
       <c r="AF12" s="15">
         <v>0</v>
       </c>
+      <c r="AG12" s="15">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" s="5">
         <v>199</v>
@@ -1726,13 +1775,17 @@
       <c r="AF13" s="15">
         <v>5</v>
       </c>
+      <c r="AG13" s="15">
+        <f t="shared" si="0"/>
+        <v>1621.9798999999996</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C14" s="5">
         <v>188</v>
@@ -1824,13 +1877,17 @@
       <c r="AF14" s="15">
         <v>0</v>
       </c>
+      <c r="AG14" s="15">
+        <f t="shared" si="0"/>
+        <v>1055</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" s="5">
         <v>318</v>
@@ -1922,13 +1979,17 @@
       <c r="AF15" s="15">
         <v>52</v>
       </c>
+      <c r="AG15" s="15">
+        <f t="shared" si="0"/>
+        <v>3177.3109999999997</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C16" s="5">
         <v>134</v>
@@ -2020,13 +2081,17 @@
       <c r="AF16" s="15">
         <v>10</v>
       </c>
+      <c r="AG16" s="15">
+        <f t="shared" si="0"/>
+        <v>448.09400000000005</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -2118,13 +2183,17 @@
       <c r="AF17" s="15">
         <v>0</v>
       </c>
+      <c r="AG17" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C18" s="5">
         <v>160</v>
@@ -2216,13 +2285,17 @@
       <c r="AF18" s="15">
         <v>0</v>
       </c>
+      <c r="AG18" s="15">
+        <f t="shared" si="0"/>
+        <v>524.03700000000003</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C19" s="5">
         <v>12</v>
@@ -2314,13 +2387,17 @@
       <c r="AF19" s="15">
         <v>0</v>
       </c>
+      <c r="AG19" s="15">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C20" s="5">
         <v>265.7</v>
@@ -2412,13 +2489,17 @@
       <c r="AF20" s="15">
         <v>0</v>
       </c>
+      <c r="AG20" s="15">
+        <f t="shared" si="0"/>
+        <v>2264</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C21" s="5">
         <v>560</v>
@@ -2510,13 +2591,17 @@
       <c r="AF21" s="15">
         <v>35</v>
       </c>
+      <c r="AG21" s="15">
+        <f t="shared" si="0"/>
+        <v>5492.6970000000001</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C22" s="5">
         <v>47</v>
@@ -2608,13 +2693,17 @@
       <c r="AF22" s="15">
         <v>0</v>
       </c>
+      <c r="AG22" s="15">
+        <f t="shared" si="0"/>
+        <v>369.23599999999999</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C23" s="5">
         <v>1223</v>
@@ -2706,13 +2795,17 @@
       <c r="AF23" s="15">
         <v>0</v>
       </c>
+      <c r="AG23" s="15">
+        <f t="shared" si="0"/>
+        <v>16345</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C24" s="5">
         <v>450</v>
@@ -2804,13 +2897,17 @@
       <c r="AF24" s="15">
         <v>25</v>
       </c>
+      <c r="AG24" s="15">
+        <f t="shared" si="0"/>
+        <v>2207.4356000000007</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
@@ -2902,13 +2999,17 @@
       <c r="AF25" s="15">
         <v>0</v>
       </c>
+      <c r="AG25" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C26" s="5">
         <v>1344</v>
@@ -3000,13 +3101,17 @@
       <c r="AF26" s="15">
         <v>15</v>
       </c>
+      <c r="AG26" s="15">
+        <f t="shared" si="0"/>
+        <v>5291.3489999999993</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27" s="5">
         <v>55</v>
@@ -3098,13 +3203,17 @@
       <c r="AF27" s="15">
         <v>0</v>
       </c>
+      <c r="AG27" s="15">
+        <f t="shared" si="0"/>
+        <v>475.15600000000012</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C28" s="5">
         <v>3720.797</v>
@@ -3196,13 +3305,17 @@
       <c r="AF28" s="15">
         <v>416</v>
       </c>
+      <c r="AG28" s="15">
+        <f t="shared" si="0"/>
+        <v>67927.005000000005</v>
+      </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C29" s="5">
         <v>343</v>
@@ -3294,13 +3407,17 @@
       <c r="AF29" s="15">
         <v>88</v>
       </c>
+      <c r="AG29" s="15">
+        <f t="shared" si="0"/>
+        <v>4568.8200000000006</v>
+      </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C30" s="5">
         <v>4796</v>
@@ -3392,13 +3509,17 @@
       <c r="AF30" s="15">
         <v>350</v>
       </c>
+      <c r="AG30" s="15">
+        <f t="shared" si="0"/>
+        <v>30905.859</v>
+      </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C31" s="5">
         <v>116</v>
@@ -3490,13 +3611,17 @@
       <c r="AF31" s="15">
         <v>3</v>
       </c>
+      <c r="AG31" s="15">
+        <f t="shared" si="0"/>
+        <v>993.15800000000002</v>
+      </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C32" s="5">
         <v>245</v>
@@ -3588,13 +3713,17 @@
       <c r="AF32" s="15">
         <v>25</v>
       </c>
+      <c r="AG32" s="15">
+        <f t="shared" si="0"/>
+        <v>4839.3700000000008</v>
+      </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C33" s="5">
         <v>2</v>
@@ -3686,13 +3815,17 @@
       <c r="AF33" s="15">
         <v>0</v>
       </c>
+      <c r="AG33" s="15">
+        <f t="shared" si="0"/>
+        <v>10.199999999999999</v>
+      </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C34" s="5">
         <v>2800</v>
@@ -3784,13 +3917,17 @@
       <c r="AF34" s="15">
         <v>650</v>
       </c>
+      <c r="AG34" s="15">
+        <f t="shared" si="0"/>
+        <v>60943</v>
+      </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C35" s="5">
         <v>2</v>
@@ -3882,13 +4019,17 @@
       <c r="AF35" s="15">
         <v>0</v>
       </c>
+      <c r="AG35" s="15">
+        <f t="shared" si="0"/>
+        <v>17.385999999999999</v>
+      </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C36" s="5">
         <v>4</v>
@@ -3980,13 +4121,17 @@
       <c r="AF36" s="15">
         <v>2</v>
       </c>
+      <c r="AG36" s="15">
+        <f t="shared" si="0"/>
+        <v>360.74299999999999</v>
+      </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C37" s="5">
         <v>77</v>
@@ -4078,13 +4223,17 @@
       <c r="AF37" s="15">
         <v>10</v>
       </c>
+      <c r="AG37" s="15">
+        <f t="shared" si="0"/>
+        <v>3104.1819999999998</v>
+      </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C38" s="5">
         <v>45</v>
@@ -4176,13 +4325,17 @@
       <c r="AF38" s="15">
         <v>30</v>
       </c>
+      <c r="AG38" s="15">
+        <f t="shared" si="0"/>
+        <v>796.00099999999998</v>
+      </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C39" s="5">
         <v>0</v>
@@ -4274,13 +4427,17 @@
       <c r="AF39" s="15">
         <v>0</v>
       </c>
+      <c r="AG39" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C40" s="5">
         <v>101.19799999999999</v>
@@ -4372,13 +4529,17 @@
       <c r="AF40" s="15">
         <v>200</v>
       </c>
+      <c r="AG40" s="15">
+        <f t="shared" si="0"/>
+        <v>4647.2670000000007</v>
+      </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C41" s="5">
         <v>842</v>
@@ -4470,13 +4631,17 @@
       <c r="AF41" s="15">
         <v>475</v>
       </c>
+      <c r="AG41" s="15">
+        <f t="shared" si="0"/>
+        <v>31159</v>
+      </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C42" s="5">
         <v>0</v>
@@ -4568,13 +4733,17 @@
       <c r="AF42" s="15">
         <v>0</v>
       </c>
+      <c r="AG42" s="15">
+        <f t="shared" si="0"/>
+        <v>250.98400000000004</v>
+      </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C43" s="5">
         <v>766.33299999999997</v>
@@ -4666,13 +4835,17 @@
       <c r="AF43" s="15">
         <v>50</v>
       </c>
+      <c r="AG43" s="15">
+        <f t="shared" si="0"/>
+        <v>5952.5229999999992</v>
+      </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C44" s="5">
         <v>0</v>
@@ -4764,13 +4937,17 @@
       <c r="AF44" s="15">
         <v>0</v>
       </c>
+      <c r="AG44" s="15">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C45" s="5">
         <v>0</v>
@@ -4862,13 +5039,17 @@
       <c r="AF45" s="15">
         <v>0</v>
       </c>
+      <c r="AG45" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C46" s="5">
         <v>974</v>
@@ -4960,13 +5141,17 @@
       <c r="AF46" s="15">
         <v>1136</v>
       </c>
+      <c r="AG46" s="15">
+        <f t="shared" si="0"/>
+        <v>18499.25</v>
+      </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C47" s="5">
         <v>0</v>
@@ -5058,13 +5243,17 @@
       <c r="AF47" s="15">
         <v>0</v>
       </c>
+      <c r="AG47" s="15">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C48" s="5">
         <v>56</v>
@@ -5156,13 +5345,17 @@
       <c r="AF48" s="15">
         <v>125</v>
       </c>
+      <c r="AG48" s="15">
+        <f t="shared" si="0"/>
+        <v>2649.607</v>
+      </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C49" s="5">
         <v>0</v>
@@ -5254,13 +5447,17 @@
       <c r="AF49" s="15">
         <v>0</v>
       </c>
+      <c r="AG49" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>69</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C50" s="5">
         <v>18</v>
@@ -5352,13 +5549,17 @@
       <c r="AF50" s="15">
         <v>6</v>
       </c>
+      <c r="AG50" s="15">
+        <f t="shared" si="0"/>
+        <v>919.32</v>
+      </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C51" s="5">
         <v>127</v>
@@ -5450,13 +5651,17 @@
       <c r="AF51" s="15">
         <v>5</v>
       </c>
+      <c r="AG51" s="15">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C52" s="5">
         <v>10</v>
@@ -5548,13 +5753,17 @@
       <c r="AF52" s="15">
         <v>0</v>
       </c>
+      <c r="AG52" s="15">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C53" s="5">
         <v>71</v>
@@ -5646,13 +5855,17 @@
       <c r="AF53" s="15">
         <v>12</v>
       </c>
+      <c r="AG53" s="15">
+        <f t="shared" si="0"/>
+        <v>2452.884</v>
+      </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>73</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C54" s="5">
         <v>59</v>
@@ -5744,13 +5957,17 @@
       <c r="AF54" s="15">
         <v>5</v>
       </c>
+      <c r="AG54" s="15">
+        <f t="shared" si="0"/>
+        <v>720.72900000000016</v>
+      </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C55" s="5">
         <v>5</v>
@@ -5842,13 +6059,17 @@
       <c r="AF55" s="15">
         <v>0</v>
       </c>
+      <c r="AG55" s="15">
+        <f t="shared" si="0"/>
+        <v>14.042999999999999</v>
+      </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>75</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C56" s="5">
         <v>3100</v>
@@ -5940,13 +6161,17 @@
       <c r="AF56" s="15">
         <v>900</v>
       </c>
+      <c r="AG56" s="15">
+        <f t="shared" si="0"/>
+        <v>31340.728999999999</v>
+      </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C57" s="5">
         <v>142</v>
@@ -6038,13 +6263,17 @@
       <c r="AF57" s="15">
         <v>0</v>
       </c>
+      <c r="AG57" s="15">
+        <f t="shared" si="0"/>
+        <v>3817.5450000000001</v>
+      </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C58" s="5">
         <v>181</v>
@@ -6136,13 +6365,17 @@
       <c r="AF58" s="15">
         <v>5200</v>
       </c>
+      <c r="AG58" s="15">
+        <f t="shared" si="0"/>
+        <v>50014.001000000004</v>
+      </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>77</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C59" s="5">
         <v>0</v>
@@ -6234,8 +6467,12 @@
       <c r="AF59" s="15">
         <v>0</v>
       </c>
+      <c r="AG59" s="15">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" s="13"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
@@ -6267,8 +6504,9 @@
       <c r="AD60" s="15"/>
       <c r="AE60" s="15"/>
       <c r="AF60" s="15"/>
+      <c r="AG60" s="15"/>
     </row>
-    <row r="61" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>78</v>
       </c>
@@ -6363,8 +6601,12 @@
       <c r="AF61" s="8">
         <v>25361</v>
       </c>
+      <c r="AG61" s="15">
+        <f t="shared" si="0"/>
+        <v>1086643.6305</v>
+      </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>2</v>
       </c>

--- a/datasets/1d - Gross Opening stocks.xlsx
+++ b/datasets/1d - Gross Opening stocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Data analysis projects\Coffee_production_consumption\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CE76EE-4C7A-4563-A836-36AA2DA54E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790F3EAF-F294-47C1-8DC7-5E90E0BE2149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -733,7 +733,7 @@
   <dimension ref="A1:AG62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="A44" sqref="A44"/>

--- a/datasets/1d - Gross Opening stocks.xlsx
+++ b/datasets/1d - Gross Opening stocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Data analysis projects\Coffee_production_consumption\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790F3EAF-F294-47C1-8DC7-5E90E0BE2149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF27C7B-B1CE-4294-BF4C-6525645D6F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Print Table here" sheetId="1" r:id="rId1"/>
@@ -300,9 +300,6 @@
     <t>Lao People's Democratic Republic</t>
   </si>
   <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
     <t>2019/20</t>
   </si>
   <si>
@@ -325,6 +322,9 @@
   </si>
   <si>
     <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
   </si>
 </sst>
 </file>
@@ -733,10 +733,10 @@
   <dimension ref="A1:AG62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="O41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
+      <selection pane="bottomRight" activeCell="R53" sqref="R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -763,10 +763,10 @@
     </row>
     <row r="4" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>82</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -867,7 +867,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="5">
         <v>210</v>
@@ -966,10 +966,10 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="5">
         <v>54</v>
@@ -1071,7 +1071,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="5">
         <v>26926</v>
@@ -1173,7 +1173,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="5">
         <v>77</v>
@@ -1275,7 +1275,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="5">
         <v>723.96299999999997</v>
@@ -1377,7 +1377,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="5">
         <v>1319</v>
@@ -1479,7 +1479,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="5">
         <v>544</v>
@@ -1581,7 +1581,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="5">
         <v>20</v>
@@ -1683,7 +1683,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="5">
         <v>199</v>
@@ -1785,7 +1785,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="5">
         <v>188</v>
@@ -1887,7 +1887,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="5">
         <v>318</v>
@@ -1989,7 +1989,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="5">
         <v>134</v>
@@ -2091,7 +2091,7 @@
         <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -2193,7 +2193,7 @@
         <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="5">
         <v>160</v>
@@ -2295,7 +2295,7 @@
         <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="5">
         <v>12</v>
@@ -2397,7 +2397,7 @@
         <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="5">
         <v>265.7</v>
@@ -2499,7 +2499,7 @@
         <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="5">
         <v>560</v>
@@ -2601,7 +2601,7 @@
         <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="5">
         <v>47</v>
@@ -2703,7 +2703,7 @@
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="5">
         <v>1223</v>
@@ -2805,7 +2805,7 @@
         <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="5">
         <v>450</v>
@@ -2907,7 +2907,7 @@
         <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
@@ -3009,7 +3009,7 @@
         <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="5">
         <v>1344</v>
@@ -3111,7 +3111,7 @@
         <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="5">
         <v>55</v>
@@ -3213,7 +3213,7 @@
         <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" s="5">
         <v>3720.797</v>
@@ -3315,7 +3315,7 @@
         <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="5">
         <v>343</v>
@@ -3417,7 +3417,7 @@
         <v>51</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="5">
         <v>4796</v>
@@ -3519,7 +3519,7 @@
         <v>84</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" s="5">
         <v>116</v>
@@ -3621,7 +3621,7 @@
         <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="5">
         <v>245</v>
@@ -3723,7 +3723,7 @@
         <v>53</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" s="5">
         <v>2</v>
@@ -3825,7 +3825,7 @@
         <v>54</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="5">
         <v>2800</v>
@@ -3927,7 +3927,7 @@
         <v>55</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="5">
         <v>2</v>
@@ -4029,7 +4029,7 @@
         <v>56</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="5">
         <v>4</v>
@@ -4131,7 +4131,7 @@
         <v>57</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="5">
         <v>77</v>
@@ -4233,7 +4233,7 @@
         <v>58</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="5">
         <v>45</v>
@@ -4335,7 +4335,7 @@
         <v>59</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="5">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>60</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="5">
         <v>101.19799999999999</v>
@@ -4539,7 +4539,7 @@
         <v>61</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="5">
         <v>842</v>
@@ -4641,7 +4641,7 @@
         <v>62</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="5">
         <v>0</v>
@@ -4743,7 +4743,7 @@
         <v>63</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="5">
         <v>766.33299999999997</v>
@@ -4845,7 +4845,7 @@
         <v>85</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" s="5">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>64</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" s="5">
         <v>0</v>
@@ -5049,7 +5049,7 @@
         <v>65</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" s="5">
         <v>974</v>
@@ -5151,7 +5151,7 @@
         <v>66</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C47" s="5">
         <v>0</v>
@@ -5253,7 +5253,7 @@
         <v>67</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" s="5">
         <v>56</v>
@@ -5355,7 +5355,7 @@
         <v>68</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C49" s="5">
         <v>0</v>
@@ -5457,7 +5457,7 @@
         <v>69</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C50" s="5">
         <v>18</v>
@@ -5559,7 +5559,7 @@
         <v>70</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C51" s="5">
         <v>127</v>
@@ -5661,7 +5661,7 @@
         <v>71</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C52" s="5">
         <v>10</v>
@@ -5763,7 +5763,7 @@
         <v>72</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" s="5">
         <v>71</v>
@@ -5865,7 +5865,7 @@
         <v>73</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C54" s="5">
         <v>59</v>
@@ -5967,7 +5967,7 @@
         <v>74</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C55" s="5">
         <v>5</v>
@@ -6069,7 +6069,7 @@
         <v>75</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C56" s="5">
         <v>3100</v>
@@ -6171,7 +6171,7 @@
         <v>76</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="5">
         <v>142</v>
@@ -6270,10 +6270,10 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C58" s="5">
         <v>181</v>
@@ -6375,7 +6375,7 @@
         <v>77</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C59" s="5">
         <v>0</v>

--- a/datasets/1d - Gross Opening stocks.xlsx
+++ b/datasets/1d - Gross Opening stocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Data analysis projects\Coffee_production_consumption\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF27C7B-B1CE-4294-BF4C-6525645D6F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490DCDC5-1C75-4912-A468-5D738629F3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,81 +51,6 @@
     <t>© International Coffee Organization</t>
   </si>
   <si>
-    <t>1990/91</t>
-  </si>
-  <si>
-    <t>1991/92</t>
-  </si>
-  <si>
-    <t>1992/93</t>
-  </si>
-  <si>
-    <t>1993/94</t>
-  </si>
-  <si>
-    <t>1994/95</t>
-  </si>
-  <si>
-    <t>1995/96</t>
-  </si>
-  <si>
-    <t>1996/97</t>
-  </si>
-  <si>
-    <t>1997/98</t>
-  </si>
-  <si>
-    <t>1998/99</t>
-  </si>
-  <si>
-    <t>1999/00</t>
-  </si>
-  <si>
-    <t>2000/01</t>
-  </si>
-  <si>
-    <t>2001/02</t>
-  </si>
-  <si>
-    <t>2002/03</t>
-  </si>
-  <si>
-    <t>2003/04</t>
-  </si>
-  <si>
-    <t>2004/05</t>
-  </si>
-  <si>
-    <t>2005/06</t>
-  </si>
-  <si>
-    <t>2006/07</t>
-  </si>
-  <si>
-    <t>2007/08</t>
-  </si>
-  <si>
-    <t>2008/09</t>
-  </si>
-  <si>
-    <t>2009/10</t>
-  </si>
-  <si>
-    <t>2010/11</t>
-  </si>
-  <si>
-    <t>2011/12</t>
-  </si>
-  <si>
-    <t>2012/13</t>
-  </si>
-  <si>
-    <t>2013/14</t>
-  </si>
-  <si>
-    <t>2014/15</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
@@ -279,18 +204,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>2015/16</t>
-  </si>
-  <si>
-    <t>2016/17</t>
-  </si>
-  <si>
-    <t>2017/18</t>
-  </si>
-  <si>
-    <t>2018/19</t>
-  </si>
-  <si>
     <t>Congo</t>
   </si>
   <si>
@@ -300,9 +213,6 @@
     <t>Lao People's Democratic Republic</t>
   </si>
   <si>
-    <t>2019/20</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -325,6 +235,96 @@
   </si>
   <si>
     <t>Vietnam</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
   </si>
 </sst>
 </file>
@@ -733,10 +733,10 @@
   <dimension ref="A1:AG62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="O41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R53" sqref="R53"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4:AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -763,111 +763,111 @@
     </row>
     <row r="4" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="AE4" s="4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C5" s="5">
         <v>210</v>
@@ -966,10 +966,10 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C6" s="5">
         <v>54</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C7" s="5">
         <v>26926</v>
@@ -1170,10 +1170,10 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C8" s="5">
         <v>77</v>
@@ -1272,10 +1272,10 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C9" s="5">
         <v>723.96299999999997</v>
@@ -1374,10 +1374,10 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C10" s="5">
         <v>1319</v>
@@ -1476,10 +1476,10 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C11" s="5">
         <v>544</v>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C12" s="5">
         <v>20</v>
@@ -1680,10 +1680,10 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C13" s="5">
         <v>199</v>
@@ -1782,10 +1782,10 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C14" s="5">
         <v>188</v>
@@ -1884,10 +1884,10 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C15" s="5">
         <v>318</v>
@@ -1986,10 +1986,10 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C16" s="5">
         <v>134</v>
@@ -2088,10 +2088,10 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -2190,10 +2190,10 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C18" s="5">
         <v>160</v>
@@ -2292,10 +2292,10 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C19" s="5">
         <v>12</v>
@@ -2394,10 +2394,10 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C20" s="5">
         <v>265.7</v>
@@ -2496,10 +2496,10 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C21" s="5">
         <v>560</v>
@@ -2598,10 +2598,10 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C22" s="5">
         <v>47</v>
@@ -2700,10 +2700,10 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C23" s="5">
         <v>1223</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C24" s="5">
         <v>450</v>
@@ -2904,10 +2904,10 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
@@ -3006,10 +3006,10 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C26" s="5">
         <v>1344</v>
@@ -3108,10 +3108,10 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C27" s="5">
         <v>55</v>
@@ -3210,10 +3210,10 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C28" s="5">
         <v>3720.797</v>
@@ -3312,10 +3312,10 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C29" s="5">
         <v>343</v>
@@ -3414,10 +3414,10 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C30" s="5">
         <v>4796</v>
@@ -3516,10 +3516,10 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C31" s="5">
         <v>116</v>
@@ -3618,10 +3618,10 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C32" s="5">
         <v>245</v>
@@ -3720,10 +3720,10 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C33" s="5">
         <v>2</v>
@@ -3822,10 +3822,10 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C34" s="5">
         <v>2800</v>
@@ -3924,10 +3924,10 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C35" s="5">
         <v>2</v>
@@ -4026,10 +4026,10 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C36" s="5">
         <v>4</v>
@@ -4128,10 +4128,10 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C37" s="5">
         <v>77</v>
@@ -4230,10 +4230,10 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C38" s="5">
         <v>45</v>
@@ -4332,10 +4332,10 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C39" s="5">
         <v>0</v>
@@ -4434,10 +4434,10 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C40" s="5">
         <v>101.19799999999999</v>
@@ -4536,10 +4536,10 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C41" s="5">
         <v>842</v>
@@ -4638,10 +4638,10 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C42" s="5">
         <v>0</v>
@@ -4740,10 +4740,10 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C43" s="5">
         <v>766.33299999999997</v>
@@ -4842,10 +4842,10 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C44" s="5">
         <v>0</v>
@@ -4944,10 +4944,10 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C45" s="5">
         <v>0</v>
@@ -5046,10 +5046,10 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C46" s="5">
         <v>974</v>
@@ -5148,10 +5148,10 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C47" s="5">
         <v>0</v>
@@ -5250,10 +5250,10 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C48" s="5">
         <v>56</v>
@@ -5352,10 +5352,10 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C49" s="5">
         <v>0</v>
@@ -5454,10 +5454,10 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C50" s="5">
         <v>18</v>
@@ -5556,10 +5556,10 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C51" s="5">
         <v>127</v>
@@ -5658,10 +5658,10 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C52" s="5">
         <v>10</v>
@@ -5760,10 +5760,10 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C53" s="5">
         <v>71</v>
@@ -5862,10 +5862,10 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C54" s="5">
         <v>59</v>
@@ -5964,10 +5964,10 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C55" s="5">
         <v>5</v>
@@ -6066,10 +6066,10 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C56" s="5">
         <v>3100</v>
@@ -6168,10 +6168,10 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C57" s="5">
         <v>142</v>
@@ -6270,10 +6270,10 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C58" s="5">
         <v>181</v>
@@ -6372,10 +6372,10 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C59" s="5">
         <v>0</v>
@@ -6508,7 +6508,7 @@
     </row>
     <row r="61" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="8">

--- a/datasets/1d - Gross Opening stocks.xlsx
+++ b/datasets/1d - Gross Opening stocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Data analysis projects\Coffee_production_consumption\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490DCDC5-1C75-4912-A468-5D738629F3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127FFCA8-7728-44B6-8E93-A74043CDA3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,9 +210,6 @@
     <t>Democratic Republic of Congo</t>
   </si>
   <si>
-    <t>Lao People's Democratic Republic</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -325,6 +322,9 @@
   </si>
   <si>
     <t>2019</t>
+  </si>
+  <si>
+    <t>Laos</t>
   </si>
 </sst>
 </file>
@@ -736,7 +736,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4:AF4"/>
+      <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -763,103 +763,103 @@
     </row>
     <row r="4" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AD4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AF4" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="AG4" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -867,7 +867,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="5">
         <v>210</v>
@@ -966,10 +966,10 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="5">
         <v>54</v>
@@ -1071,7 +1071,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="5">
         <v>26926</v>
@@ -1173,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="5">
         <v>77</v>
@@ -1275,7 +1275,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="5">
         <v>723.96299999999997</v>
@@ -1377,7 +1377,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="5">
         <v>1319</v>
@@ -1479,7 +1479,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="5">
         <v>544</v>
@@ -1581,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="5">
         <v>20</v>
@@ -1683,7 +1683,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5">
         <v>199</v>
@@ -1785,7 +1785,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="5">
         <v>188</v>
@@ -1887,7 +1887,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="5">
         <v>318</v>
@@ -1989,7 +1989,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="5">
         <v>134</v>
@@ -2091,7 +2091,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -2193,7 +2193,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="5">
         <v>160</v>
@@ -2295,7 +2295,7 @@
         <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="5">
         <v>12</v>
@@ -2397,7 +2397,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="5">
         <v>265.7</v>
@@ -2499,7 +2499,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="5">
         <v>560</v>
@@ -2601,7 +2601,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="5">
         <v>47</v>
@@ -2703,7 +2703,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="5">
         <v>1223</v>
@@ -2805,7 +2805,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="5">
         <v>450</v>
@@ -2907,7 +2907,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
@@ -3009,7 +3009,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="5">
         <v>1344</v>
@@ -3111,7 +3111,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="5">
         <v>55</v>
@@ -3213,7 +3213,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="5">
         <v>3720.797</v>
@@ -3315,7 +3315,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="5">
         <v>343</v>
@@ -3417,7 +3417,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="5">
         <v>4796</v>
@@ -3519,7 +3519,7 @@
         <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="5">
         <v>116</v>
@@ -3621,7 +3621,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="5">
         <v>245</v>
@@ -3723,7 +3723,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="5">
         <v>2</v>
@@ -3825,7 +3825,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="5">
         <v>2800</v>
@@ -3927,7 +3927,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="5">
         <v>2</v>
@@ -4029,7 +4029,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="5">
         <v>4</v>
@@ -4131,7 +4131,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="5">
         <v>77</v>
@@ -4233,7 +4233,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="5">
         <v>45</v>
@@ -4335,7 +4335,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="5">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="5">
         <v>101.19799999999999</v>
@@ -4539,7 +4539,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="5">
         <v>842</v>
@@ -4641,7 +4641,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" s="5">
         <v>0</v>
@@ -4743,7 +4743,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="5">
         <v>766.33299999999997</v>
@@ -4842,10 +4842,10 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="5">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="5">
         <v>0</v>
@@ -5049,7 +5049,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="5">
         <v>974</v>
@@ -5151,7 +5151,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="5">
         <v>0</v>
@@ -5253,7 +5253,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="5">
         <v>56</v>
@@ -5355,7 +5355,7 @@
         <v>43</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="5">
         <v>0</v>
@@ -5457,7 +5457,7 @@
         <v>44</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="5">
         <v>18</v>
@@ -5559,7 +5559,7 @@
         <v>45</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="5">
         <v>127</v>
@@ -5661,7 +5661,7 @@
         <v>46</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" s="5">
         <v>10</v>
@@ -5763,7 +5763,7 @@
         <v>47</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="5">
         <v>71</v>
@@ -5865,7 +5865,7 @@
         <v>48</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" s="5">
         <v>59</v>
@@ -5967,7 +5967,7 @@
         <v>49</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" s="5">
         <v>5</v>
@@ -6069,7 +6069,7 @@
         <v>50</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" s="5">
         <v>3100</v>
@@ -6171,7 +6171,7 @@
         <v>51</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="5">
         <v>142</v>
@@ -6270,10 +6270,10 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="5">
         <v>181</v>
@@ -6375,7 +6375,7 @@
         <v>52</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C59" s="5">
         <v>0</v>
